--- a/Data/Raw/Treatment group 3.xlsx
+++ b/Data/Raw/Treatment group 3.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nustedupk0-my.sharepoint.com/personal/mehak_sines_nust_edu_pk/Documents/Desktop/upwork/MedicalStats/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nustedupk0-my.sharepoint.com/personal/mehak_sines_nust_edu_pk/Documents/Desktop/upwork/MedicalStats/Data/Raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="8_{EA39E929-7532-4B90-B699-E323A2D64C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{503A8002-02C9-44A7-BDEE-F7DA28BCF7B3}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="8_{EA39E929-7532-4B90-B699-E323A2D64C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D391B8E5-203C-4519-B259-86046A063385}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="No_Diabetes" sheetId="3" r:id="rId1"/>
-    <sheet name="Pre-diabetes" sheetId="5" r:id="rId2"/>
+    <sheet name="Pre_diabetes" sheetId="5" r:id="rId2"/>
     <sheet name="Diabetes" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Diabetes!$A$1:$P$138</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">No_Diabetes!$A$1:$P$445</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Pre-diabetes'!$A$1:$P$147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Pre_diabetes!$A$1:$P$147</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -244,6 +244,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11068,7 +11072,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K121" sqref="K121"/>
+      <selection pane="bottomLeft" activeCell="O128" sqref="O128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17832,14 +17836,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a48d6e74-ef9d-4173-9fd4-ebf9a92aeea4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="727d6603-b828-4370-9be0-1dc81c83aace" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18092,21 +18094,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a48d6e74-ef9d-4173-9fd4-ebf9a92aeea4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="727d6603-b828-4370-9be0-1dc81c83aace" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7ABBC73-34B2-41D0-9AE5-F520C018EDE0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84C68A31-BB26-4780-BA16-532AD163E45C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a48d6e74-ef9d-4173-9fd4-ebf9a92aeea4"/>
-    <ds:schemaRef ds:uri="727d6603-b828-4370-9be0-1dc81c83aace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18131,9 +18132,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84C68A31-BB26-4780-BA16-532AD163E45C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7ABBC73-34B2-41D0-9AE5-F520C018EDE0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a48d6e74-ef9d-4173-9fd4-ebf9a92aeea4"/>
+    <ds:schemaRef ds:uri="727d6603-b828-4370-9be0-1dc81c83aace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Data/Raw/Treatment group 3.xlsx
+++ b/Data/Raw/Treatment group 3.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nustedupk0-my.sharepoint.com/personal/mehak_sines_nust_edu_pk/Documents/Desktop/upwork/MedicalStats/Data/Raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="8_{EA39E929-7532-4B90-B699-E323A2D64C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D391B8E5-203C-4519-B259-86046A063385}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{EA39E929-7532-4B90-B699-E323A2D64C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{122346F7-AE69-4D3F-B5BF-5059E65EFC2C}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="No_Diabetes" sheetId="3" r:id="rId1"/>
+    <sheet name="No_diabetes" sheetId="3" r:id="rId1"/>
     <sheet name="Pre_diabetes" sheetId="5" r:id="rId2"/>
     <sheet name="Diabetes" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Diabetes!$A$1:$P$138</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">No_Diabetes!$A$1:$P$445</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">No_diabetes!$A$1:$P$445</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Pre_diabetes!$A$1:$P$147</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -515,7 +515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E727F98-3899-4B38-886E-ED7F65D62A20}">
   <dimension ref="A1:AH445"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A410" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E446" sqref="E446"/>
     </sheetView>
@@ -11070,7 +11070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABF3CB7-E58D-45FC-99FF-419F51493071}">
   <dimension ref="A1:X147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O128" sqref="O128"/>
     </sheetView>
@@ -17836,12 +17836,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a48d6e74-ef9d-4173-9fd4-ebf9a92aeea4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="727d6603-b828-4370-9be0-1dc81c83aace" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18094,20 +18096,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a48d6e74-ef9d-4173-9fd4-ebf9a92aeea4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="727d6603-b828-4370-9be0-1dc81c83aace" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84C68A31-BB26-4780-BA16-532AD163E45C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7ABBC73-34B2-41D0-9AE5-F520C018EDE0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a48d6e74-ef9d-4173-9fd4-ebf9a92aeea4"/>
+    <ds:schemaRef ds:uri="727d6603-b828-4370-9be0-1dc81c83aace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18132,12 +18135,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7ABBC73-34B2-41D0-9AE5-F520C018EDE0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84C68A31-BB26-4780-BA16-532AD163E45C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a48d6e74-ef9d-4173-9fd4-ebf9a92aeea4"/>
-    <ds:schemaRef ds:uri="727d6603-b828-4370-9be0-1dc81c83aace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>